--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-sensitive-unit</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-sensitive-unit</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,24 +237,24 @@
     <t/>
   </si>
   <si>
-    <t>1</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -812,7 +812,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>73</v>
@@ -824,7 +824,7 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>27</v>
@@ -884,13 +884,13 @@
         <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -912,10 +912,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -987,10 +987,10 @@
         <v>83</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1015,10 +1015,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1090,10 +1090,10 @@
         <v>91</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1195,10 +1195,10 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1223,10 +1223,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1298,10 +1298,10 @@
         <v>99</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
